--- a/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/210/topk-0.35/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="88">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,39 +43,45 @@
     <t>kill</t>
   </si>
   <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>forced</t>
+    <t>died</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>collapse</t>
   </si>
   <si>
     <t>crude</t>
   </si>
   <si>
-    <t>died</t>
+    <t>fraud</t>
   </si>
   <si>
     <t>war</t>
   </si>
   <si>
-    <t>fraud</t>
+    <t>die</t>
   </si>
   <si>
     <t>sc</t>
   </si>
   <si>
-    <t>die</t>
-  </si>
-  <si>
     <t>panic</t>
   </si>
   <si>
+    <t>fears</t>
+  </si>
+  <si>
     <t>drop</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
     <t>avoid</t>
   </si>
   <si>
@@ -91,157 +97,187 @@
     <t>stop</t>
   </si>
   <si>
+    <t>demand</t>
+  </si>
+  <si>
     <t>of</t>
   </si>
   <si>
+    <t>co</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
-    <t>co</t>
+    <t>the</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>negative</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>special</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>relief</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>like</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>gt</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>god</t>
+  </si>
+  <si>
+    <t>healthy</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>you</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>?</t>
   </si>
   <si>
     <t>corona</t>
-  </si>
-  <si>
-    <t>the</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>negative</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>best</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>like</t>
-  </si>
-  <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>safety</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
-    <t>your</t>
-  </si>
-  <si>
-    <t>you</t>
-  </si>
-  <si>
-    <t>are</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>and</t>
-  </si>
-  <si>
-    <t>?</t>
   </si>
 </sst>
 </file>
@@ -599,7 +635,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q49"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -607,10 +643,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -668,13 +704,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7368421052631579</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -686,19 +722,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K3">
-        <v>0.9347826086956522</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -710,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -718,13 +754,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7363013698630136</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="C4">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="D4">
-        <v>215</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -736,19 +772,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>77</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>0.9152542372881356</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -760,7 +796,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -768,13 +804,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.75</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>219</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -786,19 +822,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K5">
-        <v>0.8916666666666667</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -810,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -818,13 +854,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.5882352941176471</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -836,19 +872,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K6">
-        <v>0.8660714285714286</v>
+        <v>0.9230769230769231</v>
       </c>
       <c r="L6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="M6">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -860,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -868,7 +904,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.5384615384615384</v>
+        <v>0.6086956521739131</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -886,19 +922,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K7">
-        <v>0.8433420365535248</v>
+        <v>0.8947368421052632</v>
       </c>
       <c r="L7">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="M7">
-        <v>323</v>
+        <v>17</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -910,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -918,13 +954,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5263157894736842</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -936,19 +972,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8">
-        <v>0.839622641509434</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="M8">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -968,13 +1004,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.4444444444444444</v>
+        <v>0.5588235294117647</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -986,19 +1022,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K9">
-        <v>0.8205128205128205</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="M9">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1010,7 +1046,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1018,13 +1054,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.4338624338624338</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C10">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="D10">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1036,19 +1072,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K10">
-        <v>0.8055555555555556</v>
+        <v>0.8292682926829268</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1060,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1068,13 +1104,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.4054054054054054</v>
+        <v>0.5263157894736842</v>
       </c>
       <c r="C11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D11">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1086,19 +1122,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K11">
-        <v>0.795774647887324</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="L11">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="M11">
-        <v>113</v>
+        <v>27</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1110,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>29</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1118,13 +1154,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.374031007751938</v>
+        <v>0.4594594594594595</v>
       </c>
       <c r="C12">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="D12">
-        <v>193</v>
+        <v>17</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1136,19 +1172,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>323</v>
+        <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K12">
-        <v>0.78125</v>
+        <v>0.8103448275862069</v>
       </c>
       <c r="L12">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="M12">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1160,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>28</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1168,13 +1204,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3220338983050847</v>
+        <v>0.4338624338624338</v>
       </c>
       <c r="C13">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="D13">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1186,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>40</v>
+        <v>107</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13">
-        <v>0.7804878048780488</v>
+        <v>0.804177545691906</v>
       </c>
       <c r="L13">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="M13">
-        <v>64</v>
+        <v>308</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1210,7 +1246,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>18</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1218,13 +1254,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.2941176470588235</v>
+        <v>0.3507751937984496</v>
       </c>
       <c r="C14">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="D14">
-        <v>15</v>
+        <v>181</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1236,19 +1272,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>36</v>
+        <v>335</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K14">
-        <v>0.7777777777777778</v>
+        <v>0.7924528301886793</v>
       </c>
       <c r="L14">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="M14">
-        <v>28</v>
+        <v>84</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1260,7 +1296,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>8</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1268,13 +1304,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.2727272727272727</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1286,19 +1322,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K15">
-        <v>0.7758620689655172</v>
+        <v>0.7746478873239436</v>
       </c>
       <c r="L15">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="M15">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1310,7 +1346,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1318,7 +1354,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2266666666666667</v>
+        <v>0.288135593220339</v>
       </c>
       <c r="C16">
         <v>17</v>
@@ -1336,19 +1372,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K16">
         <v>0.7692307692307693</v>
       </c>
       <c r="L16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M16">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1360,7 +1396,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1368,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2147651006711409</v>
+        <v>0.2545454545454545</v>
       </c>
       <c r="C17">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D17">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1386,19 +1422,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>117</v>
+        <v>41</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K17">
-        <v>0.7625</v>
+        <v>0.75625</v>
       </c>
       <c r="L17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M17">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1410,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1418,13 +1454,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1638888888888889</v>
+        <v>0.2533333333333334</v>
       </c>
       <c r="C18">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D18">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1436,10 +1472,10 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>301</v>
+        <v>56</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K18">
         <v>0.75</v>
@@ -1468,13 +1504,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.07539682539682539</v>
+        <v>0.2080536912751678</v>
       </c>
       <c r="C19">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1486,19 +1522,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>233</v>
+        <v>118</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K19">
-        <v>0.7272727272727273</v>
+        <v>0.75</v>
       </c>
       <c r="L19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M19">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1518,37 +1554,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.008424599831508003</v>
+        <v>0.1583333333333333</v>
       </c>
       <c r="C20">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="E20">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="G20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>2354</v>
+        <v>303</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K20">
-        <v>0.723404255319149</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M20">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1560,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1568,37 +1604,37 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.006091846298031865</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="D21">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>0.41</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>0.5900000000000001</v>
+        <v>1</v>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>2121</v>
+        <v>231</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K21">
-        <v>0.7209302325581395</v>
+        <v>0.7421875</v>
       </c>
       <c r="L21">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="M21">
-        <v>31</v>
+        <v>95</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1610,7 +1646,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1618,37 +1654,37 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.004835589941972921</v>
+        <v>0.03485254691689008</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="E22">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="G22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>3087</v>
+        <v>360</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K22">
-        <v>0.6984126984126984</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L22">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="M22">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1660,7 +1696,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>19</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1668,37 +1704,37 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.004399748585795098</v>
+        <v>0.008864499788940482</v>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E23">
-        <v>0.58</v>
+        <v>0.32</v>
       </c>
       <c r="F23">
-        <v>0.42</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23">
-        <v>3168</v>
+        <v>2348</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K23">
-        <v>0.6666666666666666</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="L23">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1710,7 +1746,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1718,37 +1754,37 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.004087193460490463</v>
+        <v>0.007412181759587496</v>
       </c>
       <c r="C24">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D24">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E24">
-        <v>0.5600000000000001</v>
+        <v>0.15</v>
       </c>
       <c r="F24">
-        <v>0.4399999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="G24" t="b">
         <v>1</v>
       </c>
       <c r="H24">
-        <v>5117</v>
+        <v>3080</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K24">
-        <v>0.6411764705882353</v>
+        <v>0.7209302325581395</v>
       </c>
       <c r="L24">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="M24">
-        <v>218</v>
+        <v>31</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1760,7 +1796,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>122</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1768,37 +1804,37 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.003716608594657375</v>
+        <v>0.006086142322097378</v>
       </c>
       <c r="C25">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D25">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="E25">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="F25">
-        <v>0.41</v>
+        <v>0.65</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>4289</v>
+        <v>2123</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K25">
-        <v>0.64</v>
+        <v>0.72</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1810,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1818,37 +1854,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.00282030620467365</v>
+        <v>0.0050682261208577</v>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="D26">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="E26">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="F26">
-        <v>0.3</v>
+        <v>0.43</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>4950</v>
+        <v>5104</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K26">
-        <v>0.6153846153846154</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="M26">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1860,21 +1896,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>25</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.003827558420628526</v>
+      </c>
+      <c r="C27">
+        <v>19</v>
+      </c>
+      <c r="D27">
+        <v>51</v>
+      </c>
+      <c r="E27">
+        <v>0.63</v>
+      </c>
+      <c r="F27">
+        <v>0.37</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4945</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K27">
-        <v>0.574468085106383</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L27">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="M27">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1886,21 +1946,45 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>40</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:17">
+      <c r="A28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B28">
+        <v>0.003493246390312063</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>49</v>
+      </c>
+      <c r="E28">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F28">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28">
+        <v>4279</v>
+      </c>
       <c r="J28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K28">
-        <v>0.5714285714285714</v>
+        <v>0.6428571428571429</v>
       </c>
       <c r="L28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M28">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1912,21 +1996,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K29">
-        <v>0.5627118644067797</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L29">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="M29">
-        <v>166</v>
+        <v>217</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1938,21 +2022,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K30">
-        <v>0.5571428571428572</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="L30">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="M30">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1964,21 +2048,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K31">
-        <v>0.5481171548117155</v>
+        <v>0.6296296296296297</v>
       </c>
       <c r="L31">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="M31">
-        <v>131</v>
+        <v>17</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1990,21 +2074,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>108</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K32">
-        <v>0.5142857142857142</v>
+        <v>0.6190476190476191</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2016,21 +2100,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>17</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K33">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2042,21 +2126,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K34">
-        <v>0.45</v>
+        <v>0.5932203389830508</v>
       </c>
       <c r="L34">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="M34">
-        <v>18</v>
+        <v>175</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2068,21 +2152,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>22</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K35">
-        <v>0.449438202247191</v>
+        <v>0.5648535564853556</v>
       </c>
       <c r="L35">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="M35">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2094,21 +2178,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>49</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K36">
-        <v>0.3555555555555556</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L36">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2120,21 +2204,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K37">
-        <v>0.3137254901960784</v>
+        <v>0.5538461538461539</v>
       </c>
       <c r="L37">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2146,21 +2230,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K38">
-        <v>0.3013698630136986</v>
+        <v>0.5425531914893617</v>
       </c>
       <c r="L38">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="M38">
-        <v>22</v>
+        <v>51</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2172,21 +2256,21 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K39">
-        <v>0.2948717948717949</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="M39">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2198,21 +2282,21 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>55</v>
+        <v>11</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K40">
-        <v>0.03107861060329068</v>
+        <v>0.4814814814814815</v>
       </c>
       <c r="L40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="M40">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2224,21 +2308,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>530</v>
+        <v>14</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K41">
-        <v>0.02833333333333333</v>
+        <v>0.4719101123595505</v>
       </c>
       <c r="L41">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="M41">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2250,215 +2334,449 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>1166</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K42">
-        <v>0.0125</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M42">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="N42">
-        <v>0.64</v>
+        <v>1</v>
       </c>
       <c r="O42">
-        <v>0.36</v>
+        <v>0</v>
       </c>
       <c r="P42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1264</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K43">
-        <v>0.01025851456709069</v>
+        <v>0.392156862745098</v>
       </c>
       <c r="L43">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="M43">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="N43">
-        <v>0.76</v>
+        <v>1</v>
       </c>
       <c r="O43">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="P43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43">
-        <v>2412</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K44">
-        <v>0.008630393996247656</v>
+        <v>0.3809523809523809</v>
       </c>
       <c r="L44">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="M44">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="N44">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>2642</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K45">
-        <v>0.006686167989970748</v>
+        <v>0.3076923076923077</v>
       </c>
       <c r="L45">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="N45">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>2377</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="K46">
-        <v>0.006423123243677238</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L46">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M46">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="N46">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>4950</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="K47">
-        <v>0.005961719485409476</v>
+        <v>0.265625</v>
       </c>
       <c r="L47">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="M47">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="N47">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>3168</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K48">
+        <v>0.02337228714524207</v>
+      </c>
+      <c r="L48">
+        <v>28</v>
+      </c>
+      <c r="M48">
         <v>30</v>
       </c>
-      <c r="K48">
-        <v>0.005333951762523191</v>
-      </c>
-      <c r="L48">
-        <v>23</v>
-      </c>
-      <c r="M48">
-        <v>39</v>
-      </c>
       <c r="N48">
-        <v>0.59</v>
+        <v>0.93</v>
       </c>
       <c r="O48">
-        <v>0.41</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P48" t="b">
         <v>1</v>
       </c>
       <c r="Q48">
-        <v>4289</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>29</v>
+        <v>81</v>
       </c>
       <c r="K49">
-        <v>0.005248833592534992</v>
+        <v>0.01539942252165544</v>
       </c>
       <c r="L49">
+        <v>16</v>
+      </c>
+      <c r="M49">
+        <v>17</v>
+      </c>
+      <c r="N49">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O49">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P49" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q49">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="50" spans="10:17">
+      <c r="J50" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K50">
+        <v>0.01329163408913213</v>
+      </c>
+      <c r="L50">
+        <v>17</v>
+      </c>
+      <c r="M50">
         <v>27</v>
       </c>
-      <c r="M49">
-        <v>48</v>
-      </c>
-      <c r="N49">
+      <c r="N50">
+        <v>0.63</v>
+      </c>
+      <c r="O50">
+        <v>0.37</v>
+      </c>
+      <c r="P50" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q50">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K51">
+        <v>0.01320754716981132</v>
+      </c>
+      <c r="L51">
+        <v>21</v>
+      </c>
+      <c r="M51">
+        <v>25</v>
+      </c>
+      <c r="N51">
+        <v>0.84</v>
+      </c>
+      <c r="O51">
+        <v>0.16</v>
+      </c>
+      <c r="P51" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q51">
+        <v>1569</v>
+      </c>
+    </row>
+    <row r="52" spans="10:17">
+      <c r="J52" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K52">
+        <v>0.009012392039053699</v>
+      </c>
+      <c r="L52">
+        <v>24</v>
+      </c>
+      <c r="M52">
+        <v>34</v>
+      </c>
+      <c r="N52">
+        <v>0.71</v>
+      </c>
+      <c r="O52">
+        <v>0.29</v>
+      </c>
+      <c r="P52" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q52">
+        <v>2639</v>
+      </c>
+    </row>
+    <row r="53" spans="10:17">
+      <c r="J53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K53">
+        <v>0.007883143983306284</v>
+      </c>
+      <c r="L53">
+        <v>34</v>
+      </c>
+      <c r="M53">
+        <v>49</v>
+      </c>
+      <c r="N53">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="O53">
+        <v>0.3100000000000001</v>
+      </c>
+      <c r="P53" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q53">
+        <v>4279</v>
+      </c>
+    </row>
+    <row r="54" spans="10:17">
+      <c r="J54" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K54">
+        <v>0.006967213114754098</v>
+      </c>
+      <c r="L54">
+        <v>17</v>
+      </c>
+      <c r="M54">
+        <v>22</v>
+      </c>
+      <c r="N54">
+        <v>0.77</v>
+      </c>
+      <c r="O54">
+        <v>0.23</v>
+      </c>
+      <c r="P54" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q54">
+        <v>2423</v>
+      </c>
+    </row>
+    <row r="55" spans="10:17">
+      <c r="J55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K55">
+        <v>0.006810663553220471</v>
+      </c>
+      <c r="L55">
+        <v>35</v>
+      </c>
+      <c r="M55">
+        <v>61</v>
+      </c>
+      <c r="N55">
+        <v>0.57</v>
+      </c>
+      <c r="O55">
+        <v>0.43</v>
+      </c>
+      <c r="P55" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q55">
+        <v>5104</v>
+      </c>
+    </row>
+    <row r="56" spans="10:17">
+      <c r="J56" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K56">
+        <v>0.006686167989970748</v>
+      </c>
+      <c r="L56">
+        <v>16</v>
+      </c>
+      <c r="M56">
+        <v>17</v>
+      </c>
+      <c r="N56">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O56">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P56" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q56">
+        <v>2377</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57">
+        <v>0.006429576049829215</v>
+      </c>
+      <c r="L57">
+        <v>32</v>
+      </c>
+      <c r="M57">
+        <v>51</v>
+      </c>
+      <c r="N57">
+        <v>0.63</v>
+      </c>
+      <c r="O57">
+        <v>0.37</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K58">
+        <v>0.00438871473354232</v>
+      </c>
+      <c r="L58">
+        <v>14</v>
+      </c>
+      <c r="M58">
+        <v>25</v>
+      </c>
+      <c r="N58">
         <v>0.5600000000000001</v>
       </c>
-      <c r="O49">
+      <c r="O58">
         <v>0.4399999999999999</v>
       </c>
-      <c r="P49" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q49">
-        <v>5117</v>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3176</v>
       </c>
     </row>
   </sheetData>
